--- a/Source_Files/Extract_Project_Structure_-_Ref_IDs_PTO.xlsx
+++ b/Source_Files/Extract_Project_Structure_-_Ref_IDs_PTO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcleveland\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jwendt\Documents\Python_Projects\Source_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7C42F9-FA2A-4821-AAFA-DBECB533A37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636F6B59-22E9-42F9-A7E3-46B3E2EECA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1180" yWindow="360" windowWidth="19810" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Extract Project Structure - Ref" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>Carbon-Free Transportation</t>
   </si>
   <si>
-    <t>MTX - Admin</t>
-  </si>
-  <si>
     <t>Carbon-Free Transportation &gt; PTO</t>
   </si>
   <si>
@@ -708,13 +705,16 @@
   </si>
   <si>
     <t>75df36a7db5210015bb79fc799080000</t>
+  </si>
+  <si>
+    <t>CFT - Admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -781,9 +781,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -821,7 +821,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -927,7 +927,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1069,7 +1069,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1079,16 +1079,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.5">
+    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="25.5">
+    <row r="2" spans="1:13" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="25.5">
+    <row r="3" spans="1:13" ht="25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="25.5">
+    <row r="4" spans="1:13" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="38.25">
+    <row r="5" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -1264,10 +1264,10 @@
         <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>38</v>
@@ -1276,988 +1276,988 @@
         <v>18</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="25.5">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="25.5">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="25.5">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="25.5">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="25.5">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="25.5">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="25.5">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="I12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="25.5">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="25.5">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="I14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="25.5">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="25.5">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="25.5">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="I17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="M17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="25.5">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="25.5">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="I19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="25.5">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="25.5">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="I21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="25.5">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="M22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="25.5">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="I23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="25.5">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="M24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="25.5">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="I25" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="M25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="25.5">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="I26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="25.5">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="I27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="M27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="25.5">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="I28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="M28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="25.5">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="M29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="25.5">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="I30" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
